--- a/data/universities.xlsx
+++ b/data/universities.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,18 +433,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>ACIBADEM MEHMET ALİ AYDINLAR ÜNİVERSİTESİ</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>https://akademik.yok.gov.tr/AkademikArama/AkademisyenArama?islem=2qW3CPZt7b-w2_C8bs95zcm3PLoRf9yvy9mnk3CteLrv96FgaKCkCWcpWlro_ywH</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/universities.xlsx
+++ b/data/universities.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,6 +433,438 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>NUH NACİ YAZGAN ÜNİVERSİTESİ</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://akademik.yok.gov.tr/AkademikArama/AkademisyenArama?islem=XM1nKVcmbfUtoOteBfvgQPnVlttt06yMfr_cYXKzmRjDSh--IWGUumkwXAa42sRR</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ONDOKUZ MAYIS ÜNİVERSİTESİ</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://akademik.yok.gov.tr/AkademikArama/AkademisyenArama?islem=dEsunG6lk2T-zEYkWVpizMMPocBPa8fCDfbyxSX9niLGrwTClGJU9GpHP-_2xehJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ORDU ÜNİVERSİTESİ</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>https://akademik.yok.gov.tr/AkademikArama/AkademisyenArama?islem=705GBkPsPBn5Vaj4UHwca23w0cgf_LIB7WnZbeaefh9bvbgQ2O_T1ouh_7FLbWHJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ORTA DOĞU TEKNİK ÜNİVERSİTESİ</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://akademik.yok.gov.tr/AkademikArama/AkademisyenArama?islem=U89s_CFInFQgY7zTGeGwCdxsIuIquqjF3VvvoAdD6onDSh--IWGUumkwXAa42sRR</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>OSMANİYE KORKUT ATA ÜNİVERSİTESİ</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://akademik.yok.gov.tr/AkademikArama/AkademisyenArama?islem=HgnjgztWgeTfHenW06imS_Lc0RaLkSEhG0BVYp38RYRbvbgQ2O_T1ouh_7FLbWHJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>OSTİM TEKNİK ÜNİVERSİTESİ</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://akademik.yok.gov.tr/AkademikArama/AkademisyenArama?islem=5eLCFJ11F4e7oAs72IRQC84Zd294w9NUjaHdBSG23H1eEQelTm-XyRhBW_4oLHrN</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>PAMUKKALE ÜNİVERSİTESİ</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://akademik.yok.gov.tr/AkademikArama/AkademisyenArama?islem=buSE59irWgto5NqYIqKj0GCQaTsNYbpzx8qnY8xDLnTDSh--IWGUumkwXAa42sRR</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>RECEP TAYYİP ERDOĞAN ÜNİVERSİTESİ</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://akademik.yok.gov.tr/AkademikArama/AkademisyenArama?islem=lw4g-cp2QHj3u4IPhXUpMO59JSY3DuCKnYUN-T6QmwzDSh--IWGUumkwXAa42sRR</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>SAKARYA UYGULAMALI BİLİMLER ÜNİVERSİTESİ</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>https://akademik.yok.gov.tr/AkademikArama/AkademisyenArama?islem=OOZk9nlk7QEJ6URGoB9CphbO-CeDjp0WUsY1guHw7HVZ0rDnHIo0dVL3b_ZK_h53</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>SAKARYA ÜNİVERSİTESİ</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>https://akademik.yok.gov.tr/AkademikArama/AkademisyenArama?islem=4ssxIM-niFErIBgoRclxqEhzosJXM721rQAK9U9i1WrKRkLi5eSVnKbktSdmDPA1</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>SAMSUN ÜNİVERSİTESİ</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>https://akademik.yok.gov.tr/AkademikArama/AkademisyenArama?islem=BGTtIj9qMSKPCgQoCwSAVgWrkxPMkWiZaovtn-vWGqrKRkLi5eSVnKbktSdmDPA1</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>SANKO ÜNİVERSİTESİ</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>https://akademik.yok.gov.tr/AkademikArama/AkademisyenArama?islem=XfwnpyvjRVOV-L160ZO7x1mZYYk7Nf10J_FS6o3bUx0_HK2vOcGPj0bi__hecw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>SELÇUK ÜNİVERSİTESİ</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>https://akademik.yok.gov.tr/AkademikArama/AkademisyenArama?islem=STDouvZ00FlULembVqdSnFLjaL4RoKr-n-47RD0a-fdeEQelTm-XyRhBW_4oLHrN</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>SİİRT ÜNİVERSİTESİ</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>https://akademik.yok.gov.tr/AkademikArama/AkademisyenArama?islem=ryeBFH608ZJEtzlvnuETVZUc8SqMDGoSCfm7tpzF7AkRd242XOlgWf9_adZszWwP</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>SİNOP ÜNİVERSİTESİ</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>https://akademik.yok.gov.tr/AkademikArama/AkademisyenArama?islem=zD1wt1ejH1r2p9MnOJ-xdlQ8fbbT-BHaexofjrFh2atbvbgQ2O_T1ouh_7FLbWHJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>SİVAS BİLİM VE TEKNOLOJİ ÜNİVERSİTESİ</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>https://akademik.yok.gov.tr/AkademikArama/AkademisyenArama?islem=2Ul9lq8jZBxrQ-HAjBsj3CPoT6C0AY_NYajpwje8SWu6rGdYDplwTYkFx5fwwQCj</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>SİVAS CUMHURİYET ÜNİVERSİTESİ</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>https://akademik.yok.gov.tr/AkademikArama/AkademisyenArama?islem=2Ul9lq8jZBxrQ-HAjBsj3KogN0MjqghVNbJxbyBpbQE_HK2vOcGPj0bi__hecw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>SÜLEYMAN DEMİREL ÜNİVERSİTESİ</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>https://akademik.yok.gov.tr/AkademikArama/AkademisyenArama?islem=A4a8ikAWaSJyZ7KpqU8Tu09fS6toC6TViKHPCgybPcZeEQelTm-XyRhBW_4oLHrN</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>ŞIRNAK ÜNİVERSİTESİ</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>https://akademik.yok.gov.tr/AkademikArama/AkademisyenArama?islem=4upCJx1Uw9pxEWg5WShkGNdNYJWOMS_egkIUxojfGnjGrwTClGJU9GpHP-_2xehJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>TARSUS ÜNİVERSİTESİ</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>https://akademik.yok.gov.tr/AkademikArama/AkademisyenArama?islem=qYXAo1-fPdI9jI-UUrHF0es1p2HgXgFU780rQbNg_7DDSh--IWGUumkwXAa42sRR</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>TED ÜNİVERSİTESİ</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>https://akademik.yok.gov.tr/AkademikArama/AkademisyenArama?islem=dmTjRIzefxmRIaeNYnE_90OyHKX-xhxVf9Fmqj67n4FeEQelTm-XyRhBW_4oLHrN</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>TEKİRDAĞ NAMIK KEMAL ÜNİVERSİTESİ</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>https://akademik.yok.gov.tr/AkademikArama/AkademisyenArama?islem=lINch5Jk_HHDgQwVPcA_cC21irjl2G9PABW7Y4ukFblZ0rDnHIo0dVL3b_ZK_h53</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>TOBB EKONOMİ VE TEKNOLOJİ ÜNİVERSİTESİ</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>https://akademik.yok.gov.tr/AkademikArama/AkademisyenArama?islem=CaTgtXfnKWXajORO0NgHWrseab9EO45CKfDDvMSgU_JeEQelTm-XyRhBW_4oLHrN</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>TOKAT GAZİOSMANPAŞA ÜNİVERSİTESİ</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>https://akademik.yok.gov.tr/AkademikArama/AkademisyenArama?islem=TV_x5NqUPfAj-baPfTMkupjiqkS70pNNfUCyWGB_Cn1bvbgQ2O_T1ouh_7FLbWHJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>TOROS ÜNİVERSİTESİ</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>https://akademik.yok.gov.tr/AkademikArama/AkademisyenArama?islem=lQIav0Gy9MiZq3-MAGmg70PrpEsM7SNLbNA8FuEy-4PKRkLi5eSVnKbktSdmDPA1</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>TRABZON ÜNİVERSİTESİ</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>https://akademik.yok.gov.tr/AkademikArama/AkademisyenArama?islem=6Zwrku8aN3f7hEoLyCY8qNR5MQhGepQksim0v3P1z4ZeEQelTm-XyRhBW_4oLHrN</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>TRAKYA ÜNİVERSİTESİ</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>https://akademik.yok.gov.tr/AkademikArama/AkademisyenArama?islem=FhjgRJNTHexqr_uScLC92ffhIUDsADKJOUAxzzeTPEA_HK2vOcGPj0bi__hecw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>TÜRK HAVA KURUMU ÜNİVERSİTESİ</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>https://akademik.yok.gov.tr/AkademikArama/AkademisyenArama?islem=5ITgxU4tAuKChiflTUqjreamddLYfnAwL30nu_QPT64_HK2vOcGPj0bi__hecw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>UFUK ÜNİVERSİTESİ</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>https://akademik.yok.gov.tr/AkademikArama/AkademisyenArama?islem=beWvCLHYlvqXHPZUbqMXNB20tKZN4m1xQDyAUo-Dw_5Z0rDnHIo0dVL3b_ZK_h53</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>UŞAK ÜNİVERSİTESİ</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>https://akademik.yok.gov.tr/AkademikArama/AkademisyenArama?islem=beWvCLHYlvqXHPZUbqMXNCLUc7qcsv6BZX-HvbJ15rI_HK2vOcGPj0bi__hecw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>VAN YÜZÜNCÜ YIL ÜNİVERSİTESİ</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>https://akademik.yok.gov.tr/AkademikArama/AkademisyenArama?islem=ZZi-pg0QQb0s8CqAbmRVu5u-mR8UzgJHHZLz_VY-zJXv96FgaKCkCWcpWlro_ywH</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>YALOVA ÜNİVERSİTESİ</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>https://akademik.yok.gov.tr/AkademikArama/AkademisyenArama?islem=ZAmG36Tv1rjmIerjzTX6F5LngeEsdKY1xLTSmE_TKzxeEQelTm-XyRhBW_4oLHrN</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>YAŞAR ÜNİVERSİTESİ</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>https://akademik.yok.gov.tr/AkademikArama/AkademisyenArama?islem=CiGTMzhDGOanlv8tpAqEsK_sWyTIlRIfthsBrj0vzZsRd242XOlgWf9_adZszWwP</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>YOZGAT BOZOK ÜNİVERSİTESİ</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>https://akademik.yok.gov.tr/AkademikArama/AkademisyenArama?islem=CiGTMzhDGOanlv8tpAqEsHqOcM9CVSzjTH62JDxNqxC6rGdYDplwTYkFx5fwwQCj</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>YÜKSEK İHTİSAS ÜNİVERSİTESİ</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>https://akademik.yok.gov.tr/AkademikArama/AkademisyenArama?islem=1r3Zu71TC9c2XdXIJmxd6J5fwNzuA5A2ffh-gGrpAzFeEQelTm-XyRhBW_4oLHrN</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>ZONGULDAK BÜLENT ECEVİT ÜNİVERSİTESİ</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>https://akademik.yok.gov.tr/AkademikArama/AkademisyenArama?islem=1r3Zu71TC9c2XdXIJmxd6FhBGapc7-c-YXCNg8ohY726rGdYDplwTYkFx5fwwQCj</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/universities.xlsx
+++ b/data/universities.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:D209"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,439 +429,4593 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Link</t>
+          <t>City</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Opening Date </t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>NUH NACİ YAZGAN ÜNİVERSİTESİ</t>
+          <t>ABDULLAH GÜL University</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://akademik.yok.gov.tr/AkademikArama/AkademisyenArama?islem=XM1nKVcmbfUtoOteBfvgQPnVlttt06yMfr_cYXKzmRjDSh--IWGUumkwXAa42sRR</t>
+          <t>KAYSERİ</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>DEVLET</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2010</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ONDOKUZ MAYIS ÜNİVERSİTESİ</t>
+          <t>ACIBADEM MEHMET ALİ AYDINLAR University</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://akademik.yok.gov.tr/AkademikArama/AkademisyenArama?islem=dEsunG6lk2T-zEYkWVpizMMPocBPa8fCDfbyxSX9niLGrwTClGJU9GpHP-_2xehJ</t>
+          <t>İSTANBUL</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>VAKIF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2007</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ORDU ÜNİVERSİTESİ</t>
+          <t>ADANA ALPARSLAN TÜRKEŞ BİLİM VE TEKNOLOJİ University</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://akademik.yok.gov.tr/AkademikArama/AkademisyenArama?islem=705GBkPsPBn5Vaj4UHwca23w0cgf_LIB7WnZbeaefh9bvbgQ2O_T1ouh_7FLbWHJ</t>
+          <t>ADANA</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>DEVLET</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2011</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ORTA DOĞU TEKNİK ÜNİVERSİTESİ</t>
+          <t>ADIYAMAN University</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://akademik.yok.gov.tr/AkademikArama/AkademisyenArama?islem=U89s_CFInFQgY7zTGeGwCdxsIuIquqjF3VvvoAdD6onDSh--IWGUumkwXAa42sRR</t>
+          <t>ADIYAMAN</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>DEVLET</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2006</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>OSMANİYE KORKUT ATA ÜNİVERSİTESİ</t>
+          <t>AFYON KOCATEPE University</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://akademik.yok.gov.tr/AkademikArama/AkademisyenArama?islem=HgnjgztWgeTfHenW06imS_Lc0RaLkSEhG0BVYp38RYRbvbgQ2O_T1ouh_7FLbWHJ</t>
+          <t>AFYONKARAHİSAR</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>DEVLET</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1992</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>OSTİM TEKNİK ÜNİVERSİTESİ</t>
+          <t>AFYONKARAHİSAR SAĞLIK BİLİMLERİ University</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://akademik.yok.gov.tr/AkademikArama/AkademisyenArama?islem=5eLCFJ11F4e7oAs72IRQC84Zd294w9NUjaHdBSG23H1eEQelTm-XyRhBW_4oLHrN</t>
+          <t>AFYONKARAHİSAR</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>DEVLET</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2018</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>PAMUKKALE ÜNİVERSİTESİ</t>
+          <t>AĞRI İBRAHİM ÇEÇEN University</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://akademik.yok.gov.tr/AkademikArama/AkademisyenArama?islem=buSE59irWgto5NqYIqKj0GCQaTsNYbpzx8qnY8xDLnTDSh--IWGUumkwXAa42sRR</t>
+          <t>AĞRI</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>DEVLET</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2007</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>RECEP TAYYİP ERDOĞAN ÜNİVERSİTESİ</t>
+          <t>AKDENİZ University</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://akademik.yok.gov.tr/AkademikArama/AkademisyenArama?islem=lw4g-cp2QHj3u4IPhXUpMO59JSY3DuCKnYUN-T6QmwzDSh--IWGUumkwXAa42sRR</t>
+          <t>ANTALYA</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>DEVLET</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1982</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>SAKARYA UYGULAMALI BİLİMLER ÜNİVERSİTESİ</t>
+          <t>AKSARAY University</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://akademik.yok.gov.tr/AkademikArama/AkademisyenArama?islem=OOZk9nlk7QEJ6URGoB9CphbO-CeDjp0WUsY1guHw7HVZ0rDnHIo0dVL3b_ZK_h53</t>
+          <t>AKSARAY</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>DEVLET</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2006</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>SAKARYA ÜNİVERSİTESİ</t>
+          <t>ALANYA ALAADDİN KEYKUBAT University</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://akademik.yok.gov.tr/AkademikArama/AkademisyenArama?islem=4ssxIM-niFErIBgoRclxqEhzosJXM721rQAK9U9i1WrKRkLi5eSVnKbktSdmDPA1</t>
+          <t>ANTALYA</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>DEVLET</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2015</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>SAMSUN ÜNİVERSİTESİ</t>
+          <t>ALANYA University</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://akademik.yok.gov.tr/AkademikArama/AkademisyenArama?islem=BGTtIj9qMSKPCgQoCwSAVgWrkxPMkWiZaovtn-vWGqrKRkLi5eSVnKbktSdmDPA1</t>
+          <t>ANTALYA</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>VAKIF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2011</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>SANKO ÜNİVERSİTESİ</t>
+          <t>ALTINBAŞ University</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://akademik.yok.gov.tr/AkademikArama/AkademisyenArama?islem=XfwnpyvjRVOV-L160ZO7x1mZYYk7Nf10J_FS6o3bUx0_HK2vOcGPj0bi__hecw25</t>
+          <t>İSTANBUL</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>VAKIF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2008</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>SELÇUK ÜNİVERSİTESİ</t>
+          <t>AMASYA University</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://akademik.yok.gov.tr/AkademikArama/AkademisyenArama?islem=STDouvZ00FlULembVqdSnFLjaL4RoKr-n-47RD0a-fdeEQelTm-XyRhBW_4oLHrN</t>
+          <t>AMASYA</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>DEVLET</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2006</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>SİİRT ÜNİVERSİTESİ</t>
+          <t>ANADOLU University</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>https://akademik.yok.gov.tr/AkademikArama/AkademisyenArama?islem=ryeBFH608ZJEtzlvnuETVZUc8SqMDGoSCfm7tpzF7AkRd242XOlgWf9_adZszWwP</t>
+          <t>ESKİŞEHİR</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>DEVLET</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1973</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>SİNOP ÜNİVERSİTESİ</t>
+          <t>ANKA TEKNOLOJİ University</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://akademik.yok.gov.tr/AkademikArama/AkademisyenArama?islem=zD1wt1ejH1r2p9MnOJ-xdlQ8fbbT-BHaexofjrFh2atbvbgQ2O_T1ouh_7FLbWHJ</t>
+          <t>ANKARA</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>VAKIF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2013</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>SİVAS BİLİM VE TEKNOLOJİ ÜNİVERSİTESİ</t>
+          <t>ANKARA BİLİM University</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>https://akademik.yok.gov.tr/AkademikArama/AkademisyenArama?islem=2Ul9lq8jZBxrQ-HAjBsj3CPoT6C0AY_NYajpwje8SWu6rGdYDplwTYkFx5fwwQCj</t>
+          <t>ANKARA</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>VAKIF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2020</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>SİVAS CUMHURİYET ÜNİVERSİTESİ</t>
+          <t>ANKARA HACI BAYRAM VELİ University</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>https://akademik.yok.gov.tr/AkademikArama/AkademisyenArama?islem=2Ul9lq8jZBxrQ-HAjBsj3KogN0MjqghVNbJxbyBpbQE_HK2vOcGPj0bi__hecw25</t>
+          <t>ANKARA</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>DEVLET</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2018</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>SÜLEYMAN DEMİREL ÜNİVERSİTESİ</t>
+          <t>ANKARA MEDİPOL University</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>https://akademik.yok.gov.tr/AkademikArama/AkademisyenArama?islem=A4a8ikAWaSJyZ7KpqU8Tu09fS6toC6TViKHPCgybPcZeEQelTm-XyRhBW_4oLHrN</t>
+          <t>ANKARA</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>VAKIF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2018</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ŞIRNAK ÜNİVERSİTESİ</t>
+          <t>ANKARA MÜZİK VE GÜZEL SANATLAR University</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>https://akademik.yok.gov.tr/AkademikArama/AkademisyenArama?islem=4upCJx1Uw9pxEWg5WShkGNdNYJWOMS_egkIUxojfGnjGrwTClGJU9GpHP-_2xehJ</t>
+          <t>ANKARA</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>DEVLET</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2017</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>TARSUS ÜNİVERSİTESİ</t>
+          <t>ANKARA SOSYAL BİLİMLER University</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>https://akademik.yok.gov.tr/AkademikArama/AkademisyenArama?islem=qYXAo1-fPdI9jI-UUrHF0es1p2HgXgFU780rQbNg_7DDSh--IWGUumkwXAa42sRR</t>
+          <t>ANKARA</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>DEVLET</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2013</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>TED ÜNİVERSİTESİ</t>
+          <t>ANKARA University</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>https://akademik.yok.gov.tr/AkademikArama/AkademisyenArama?islem=dmTjRIzefxmRIaeNYnE_90OyHKX-xhxVf9Fmqj67n4FeEQelTm-XyRhBW_4oLHrN</t>
+          <t>ANKARA</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>DEVLET</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1946</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>TEKİRDAĞ NAMIK KEMAL ÜNİVERSİTESİ</t>
+          <t>ANKARA YILDIRIM BEYAZIT University</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>https://akademik.yok.gov.tr/AkademikArama/AkademisyenArama?islem=lINch5Jk_HHDgQwVPcA_cC21irjl2G9PABW7Y4ukFblZ0rDnHIo0dVL3b_ZK_h53</t>
+          <t>ANKARA</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>DEVLET</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2010</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>TOBB EKONOMİ VE TEKNOLOJİ ÜNİVERSİTESİ</t>
+          <t>ANTALYA BELEK University</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>https://akademik.yok.gov.tr/AkademikArama/AkademisyenArama?islem=CaTgtXfnKWXajORO0NgHWrseab9EO45CKfDDvMSgU_JeEQelTm-XyRhBW_4oLHrN</t>
+          <t>ANTALYA</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>VAKIF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2015</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>TOKAT GAZİOSMANPAŞA ÜNİVERSİTESİ</t>
+          <t>ANTALYA BİLİM University</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>https://akademik.yok.gov.tr/AkademikArama/AkademisyenArama?islem=TV_x5NqUPfAj-baPfTMkupjiqkS70pNNfUCyWGB_Cn1bvbgQ2O_T1ouh_7FLbWHJ</t>
+          <t>ANTALYA</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>VAKIF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2010</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>TOROS ÜNİVERSİTESİ</t>
+          <t>ARDAHAN University</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>https://akademik.yok.gov.tr/AkademikArama/AkademisyenArama?islem=lQIav0Gy9MiZq3-MAGmg70PrpEsM7SNLbNA8FuEy-4PKRkLi5eSVnKbktSdmDPA1</t>
+          <t>ARDAHAN</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>DEVLET</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2008</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>TRABZON ÜNİVERSİTESİ</t>
+          <t>ARTVİN ÇORUH University</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>https://akademik.yok.gov.tr/AkademikArama/AkademisyenArama?islem=6Zwrku8aN3f7hEoLyCY8qNR5MQhGepQksim0v3P1z4ZeEQelTm-XyRhBW_4oLHrN</t>
+          <t>ARTVİN</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>DEVLET</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2007</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>TRAKYA ÜNİVERSİTESİ</t>
+          <t>ATAŞEHİR ADIGÜZEL MESLEK YÜKSEKOKULU</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>https://akademik.yok.gov.tr/AkademikArama/AkademisyenArama?islem=FhjgRJNTHexqr_uScLC92ffhIUDsADKJOUAxzzeTPEA_HK2vOcGPj0bi__hecw25</t>
+          <t>İSTANBUL</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>VAKIF MYO</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2014</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>TÜRK HAVA KURUMU ÜNİVERSİTESİ</t>
+          <t>ATATÜRK University</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>https://akademik.yok.gov.tr/AkademikArama/AkademisyenArama?islem=5ITgxU4tAuKChiflTUqjreamddLYfnAwL30nu_QPT64_HK2vOcGPj0bi__hecw25</t>
+          <t>ERZURUM</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>DEVLET</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1957</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>UFUK ÜNİVERSİTESİ</t>
+          <t>ATILIM University</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>https://akademik.yok.gov.tr/AkademikArama/AkademisyenArama?islem=beWvCLHYlvqXHPZUbqMXNB20tKZN4m1xQDyAUo-Dw_5Z0rDnHIo0dVL3b_ZK_h53</t>
+          <t>ANKARA</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>VAKIF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1997</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>UŞAK ÜNİVERSİTESİ</t>
+          <t>AVRASYA University</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>https://akademik.yok.gov.tr/AkademikArama/AkademisyenArama?islem=beWvCLHYlvqXHPZUbqMXNCLUc7qcsv6BZX-HvbJ15rI_HK2vOcGPj0bi__hecw25</t>
+          <t>TRABZON</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>VAKIF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2010</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>VAN YÜZÜNCÜ YIL ÜNİVERSİTESİ</t>
+          <t>AYDIN ADNAN MENDERES University</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>https://akademik.yok.gov.tr/AkademikArama/AkademisyenArama?islem=ZZi-pg0QQb0s8CqAbmRVu5u-mR8UzgJHHZLz_VY-zJXv96FgaKCkCWcpWlro_ywH</t>
+          <t>AYDIN</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>DEVLET</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1992</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>YALOVA ÜNİVERSİTESİ</t>
+          <t>BAHÇEŞEHİR University</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>https://akademik.yok.gov.tr/AkademikArama/AkademisyenArama?islem=ZAmG36Tv1rjmIerjzTX6F5LngeEsdKY1xLTSmE_TKzxeEQelTm-XyRhBW_4oLHrN</t>
+          <t>İSTANBUL</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>VAKIF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1998</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>YAŞAR ÜNİVERSİTESİ</t>
+          <t>BALIKESİR University</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>https://akademik.yok.gov.tr/AkademikArama/AkademisyenArama?islem=CiGTMzhDGOanlv8tpAqEsK_sWyTIlRIfthsBrj0vzZsRd242XOlgWf9_adZszWwP</t>
+          <t>BALIKESİR</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>DEVLET</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1992</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>YOZGAT BOZOK ÜNİVERSİTESİ</t>
+          <t>BANDIRMA ONYEDİ EYLÜL University</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>https://akademik.yok.gov.tr/AkademikArama/AkademisyenArama?islem=CiGTMzhDGOanlv8tpAqEsHqOcM9CVSzjTH62JDxNqxC6rGdYDplwTYkFx5fwwQCj</t>
+          <t>BALIKESİR</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>DEVLET</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2015</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>YÜKSEK İHTİSAS ÜNİVERSİTESİ</t>
+          <t>BARTIN University</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>https://akademik.yok.gov.tr/AkademikArama/AkademisyenArama?islem=1r3Zu71TC9c2XdXIJmxd6J5fwNzuA5A2ffh-gGrpAzFeEQelTm-XyRhBW_4oLHrN</t>
+          <t>BARTIN</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>DEVLET</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2008</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>ZONGULDAK BÜLENT ECEVİT ÜNİVERSİTESİ</t>
+          <t>BAŞKENT University</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>https://akademik.yok.gov.tr/AkademikArama/AkademisyenArama?islem=1r3Zu71TC9c2XdXIJmxd6FhBGapc7-c-YXCNg8ohY726rGdYDplwTYkFx5fwwQCj</t>
+          <t>ANKARA</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>VAKIF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1994</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>BATMAN University</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>BATMAN</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>DEVLET</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>BAYBURT University</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>BAYBURT</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>DEVLET</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>BEYKOZ University</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>İSTANBUL</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>VAKIF</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>BEZM-İ ÂLEM VAKIF University</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>İSTANBUL</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>VAKIF</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>BİLECİK ŞEYH EDEBALİ University</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>BİLECİK</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>DEVLET</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>BİNGÖL University</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>BİNGÖL</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>DEVLET</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>BİRUNİ University</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>İSTANBUL</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>VAKIF</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>BİTLİS EREN University</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>BİTLİS</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>DEVLET</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>BOĞAZİÇİ University</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>İSTANBUL</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>DEVLET</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1971</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>BOLU ABANT İZZET BAYSAL University</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>BOLU</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>DEVLET</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1992</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>BURDUR MEHMET AKİF ERSOY University</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>BURDUR</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>DEVLET</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>BURSA TEKNİK University</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>BURSA</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>DEVLET</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>BURSA ULUDAĞ University</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>BURSA</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>DEVLET</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1975</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>ÇAĞ University</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>MERSİN</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>VAKIF</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1997</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>ÇANAKKALE ONSEKİZ MART University</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>ÇANAKKALE</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>DEVLET</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1992</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>ÇANKAYA University</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>ANKARA</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>VAKIF</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1997</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>ÇANKIRI KARATEKİN University</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>ÇANKIRI</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>DEVLET</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>ÇUKUROVA University</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>ADANA</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>DEVLET</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1973</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>DEMİROĞLU BİLİM University</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>İSTANBUL</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>VAKIF</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>DİCLE University</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>DİYARBAKIR</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>DEVLET</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1973</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>DOĞUŞ University</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>İSTANBUL</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>VAKIF</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1997</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>DOKUZ EYLÜL University</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>İZMİR</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>DEVLET</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1982</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>DÜZCE University</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>DÜZCE</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>DEVLET</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>EGE University</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>İZMİR</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>DEVLET</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1955</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>ERCİYES University</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>KAYSERİ</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>DEVLET</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1982</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>ERZİNCAN BİNALİ YILDIRIM University</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>ERZİNCAN</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>DEVLET</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>ERZURUM TEKNİK University</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>ERZURUM</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>DEVLET</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>ESKİŞEHİR OSMANGAZİ University</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>ESKİŞEHİR</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>DEVLET</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1993</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>ESKİŞEHİR TEKNİK University</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>ESKİŞEHİR</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>DEVLET</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>FATİH SULTAN MEHMET VAKIF University</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>İSTANBUL</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>VAKIF</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>FENERBAHÇE University</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>İSTANBUL</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>VAKIF</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>FIRAT University</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>ELAZIĞ</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>DEVLET</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1975</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>GALATASARAY University</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>İSTANBUL</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>DEVLET</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1994</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>GAZİ University</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>ANKARA</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>DEVLET</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1982</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>GAZİANTEP İSLAM BİLİM VE TEKNOLOJİ University</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>GAZİANTEP</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>DEVLET</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>GAZİANTEP University</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>GAZİANTEP</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>DEVLET</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1987</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>GEBZE TEKNİK University</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>KOCAELİ</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>DEVLET</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1992</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>GİRESUN University</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>GİRESUN</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>DEVLET</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>GÜMÜŞHANE University</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>GÜMÜŞHANE</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>DEVLET</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>HACETTEPE University</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>ANKARA</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>DEVLET</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1967</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>HAKKARİ University</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>HAKKARİ</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>DEVLET</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>HALİÇ University</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>İSTANBUL</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>VAKIF</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1998</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>HARRAN University</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>ŞANLIURFA</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>DEVLET</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1992</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>HASAN KALYONCU University</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>GAZİANTEP</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>VAKIF</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>HATAY MUSTAFA KEMAL University</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>HATAY</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>DEVLET</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1992</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>HİTİT University</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>ÇORUM</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>DEVLET</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>IĞDIR University</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>IĞDIR</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>DEVLET</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>ISPARTA UYGULAMALI BİLİMLER University</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>ISPARTA</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>DEVLET</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>IŞIK University</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>İSTANBUL</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>VAKIF</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>1996</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>İBN HALDUN University</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>İSTANBUL</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>VAKIF</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>İHSAN DOĞRAMACI BİLKENT University</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>ANKARA</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>VAKIF</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>1985</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>İNÖNÜ University</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>MALATYA</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>DEVLET</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>1975</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>İSKENDERUN TEKNİK University</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>HATAY</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>DEVLET</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>İSTANBUL AREL University</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>İSTANBUL</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>VAKIF</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>İSTANBUL ATLAS University</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>İSTANBUL</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>VAKIF</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>İSTANBUL AYDIN University</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>İSTANBUL</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>VAKIF</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>İSTANBUL BEYKENT University</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>İSTANBUL</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>VAKIF</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>1997</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>İSTANBUL BİLGİ University</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>İSTANBUL</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>VAKIF</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>1996</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>İSTANBUL ESENYURT University</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>İSTANBUL</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>VAKIF</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>İSTANBUL GALATA University</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>İSTANBUL</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>VAKIF</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>İSTANBUL GEDİK University</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>İSTANBUL</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>VAKIF</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>İSTANBUL GELİŞİM University</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>İSTANBUL</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>VAKIF</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>İSTANBUL KENT University</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>İSTANBUL</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>VAKIF</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>İSTANBUL KÜLTÜR University</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>İSTANBUL</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>VAKIF</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>1997</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>İSTANBUL MEDENİYET University</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>İSTANBUL</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>DEVLET</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>İSTANBUL MEDİPOL University</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>İSTANBUL</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>VAKIF</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>İSTANBUL NİŞANTAŞI University</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>İSTANBUL</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>VAKIF</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>İSTANBUL OKAN University</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>İSTANBUL</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>VAKIF</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>1999</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>İSTANBUL RUMELİ University</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>İSTANBUL</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>VAKIF</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>İSTANBUL SABAHATTİN ZAİM University</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>İSTANBUL</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>VAKIF</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>İSTANBUL SAĞLIK VE SOSYAL BİLİMLER MESLEK YÜKSEKOKULU</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>İSTANBUL</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>VAKIF MYO</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>İSTANBUL SAĞLIK VE TEKNOLOJİ University</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>İSTANBUL</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>VAKIF</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>İSTANBUL ŞİŞLİ MESLEK YÜKSEKOKULU</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>İSTANBUL</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>VAKIF MYO</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>İSTANBUL TEKNİK University</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>İSTANBUL</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>DEVLET</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>1944</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>İSTANBUL TİCARET University</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>İSTANBUL</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>VAKIF</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2001</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>İSTANBUL TOPKAPI University</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>İSTANBUL</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>VAKIF</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>İSTANBUL University</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>İSTANBUL</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>DEVLET</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>1933</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>İSTANBUL University-CERRAHPAŞA</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>İSTANBUL</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>DEVLET</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>İSTANBUL YENİ YÜZYIL University</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>İSTANBUL</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>VAKIF</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>İSTANBUL 29 MAYIS University</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>İSTANBUL</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>VAKIF</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>İSTİNYE University</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>İSTANBUL</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>VAKIF</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>İZMİR BAKIRÇAY University</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>İZMİR</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>DEVLET</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>İZMİR DEMOKRASİ University</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>İZMİR</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>DEVLET</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>İZMİR EKONOMİ University</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>İZMİR</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>VAKIF</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2001</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>İZMİR KATİP ÇELEBİ University</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>İZMİR</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>DEVLET</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>İZMİR KAVRAM MESLEK YÜKSEKOKULU</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>İZMİR</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>VAKIF MYO</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>İZMİR TINAZTEPE University</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>İZMİR</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>VAKIF</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>İZMİR YÜKSEK TEKNOLOJİ ENSTİTÜSÜ</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>İZMİR</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>DEVLET</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>1992</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>KADİR HAS University</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>İSTANBUL</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>VAKIF</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>1997</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>KAFKAS University</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>KARS</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>DEVLET</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>1992</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>KAHRAMANMARAŞ İSTİKLAL University</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>KAHRAMANMARAŞ</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>DEVLET</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>KAHRAMANMARAŞ SÜTÇÜ İMAM University</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>KAHRAMANMARAŞ</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>DEVLET</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>1992</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>KAPADOKYA University</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>NEVŞEHİR</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>VAKIF</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>KARABÜK University</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>KARABÜK</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>DEVLET</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>KARADENİZ TEKNİK University</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>TRABZON</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>DEVLET</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>1955</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>KARAMANOĞLU MEHMETBEY University</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>KARAMAN</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>DEVLET</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>KASTAMONU University</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>KASTAMONU</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>DEVLET</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>KAYSERİ University</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>KAYSERİ</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>DEVLET</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>KIRIKKALE University</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>KIRIKKALE</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>DEVLET</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>1992</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>KIRKLARELİ University</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>KIRKLARELİ</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>DEVLET</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>KIRŞEHİR AHİ EVRAN University</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>KIRŞEHİR</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>DEVLET</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>KİLİS 7 ARALIK University</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>KİLİS</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>DEVLET</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>KOCAELİ SAĞLIK VE TEKNOLOJİ University</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>KOCAELİ</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>VAKIF</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>KOCAELİ University</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>KOCAELİ</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>DEVLET</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>1992</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>KOÇ University</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>İSTANBUL</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>VAKIF</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>1992</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>KONYA GIDA VE TARIM University</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>KONYA</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>VAKIF</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>KONYA TEKNİK University</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>KONYA</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>DEVLET</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>KTO KARATAY University</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>KONYA</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>VAKIF</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>KÜTAHYA DUMLUPINAR University</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>KÜTAHYA</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>DEVLET</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>1992</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>KÜTAHYA SAĞLIK BİLİMLERİ University</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>KÜTAHYA</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>DEVLET</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>LOKMAN HEKİM University</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>ANKARA</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>VAKIF</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>MALATYA TURGUT ÖZAL University</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>MALATYA</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>DEVLET</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>MALTEPE University</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>İSTANBUL</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>VAKIF</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>1997</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>MANİSA CELÂL BAYAR University</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>MANİSA</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>DEVLET</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>1992</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>MARDİN ARTUKLU University</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>MARDİN</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>DEVLET</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>MARMARA University</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>İSTANBUL</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>DEVLET</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>1982</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>MEF University</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>İSTANBUL</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>VAKIF</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>MERSİN University</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>MERSİN</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>DEVLET</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>1992</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>MİMAR SİNAN GÜZEL SANATLAR University</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>İSTANBUL</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>DEVLET</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>1982</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>MUDANYA University</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>BURSA</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>VAKIF</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>MUĞLA SITKI KOÇMAN University</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>MUĞLA</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>DEVLET</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>1992</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>MUNZUR University</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>TUNCELİ</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>DEVLET</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>MUŞ ALPARSLAN University</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>MUŞ</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>DEVLET</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>NECMETTİN ERBAKAN University</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>KONYA</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>DEVLET</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>NEVŞEHİR HACI BEKTAŞ VELİ University</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>NEVŞEHİR</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>DEVLET</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>NİĞDE ÖMER HALİSDEMİR University</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>NİĞDE</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>DEVLET</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>1992</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>NUH NACİ YAZGAN University</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>KAYSERİ</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>VAKIF</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>ONDOKUZ MAYIS University</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>SAMSUN</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>DEVLET</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>1975</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>ORDU University</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>ORDU</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>DEVLET</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>ORTA DOĞU TEKNİK University</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>ANKARA</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>DEVLET</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>1956</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>OSMANİYE KORKUT ATA University</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>OSMANİYE</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>DEVLET</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>OSTİM TEKNİK University</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>ANKARA</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>VAKIF</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>ÖZYEĞİN University</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>İSTANBUL</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>VAKIF</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>PAMUKKALE University</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>DENİZLİ</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>DEVLET</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>1992</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>PİRİ REİS University</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>İSTANBUL</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>VAKIF</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>RECEP TAYYİP ERDOĞAN University</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>RİZE</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>DEVLET</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>SABANCI University</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>İSTANBUL</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>VAKIF</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>1996</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>SAĞLIK BİLİMLERİ University</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>İSTANBUL</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>DEVLET</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>SAKARYA UYGULAMALI BİLİMLER University</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>SAKARYA</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>DEVLET</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>SAKARYA University</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>SAKARYA</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>DEVLET</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>1992</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>SAMSUN University</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>SAMSUN</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>DEVLET</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>SANKO University</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>GAZİANTEP</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>VAKIF</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>SELÇUK University</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>KONYA</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>DEVLET</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>1975</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>SİİRT University</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>SİİRT</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>DEVLET</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>SİNOP University</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>SİNOP</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>DEVLET</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>SİVAS BİLİM VE TEKNOLOJİ University</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>SİVAS</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>DEVLET</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>SİVAS CUMHURİYET University</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>SİVAS</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>DEVLET</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>1974</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>SÜLEYMAN DEMİREL University</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>ISPARTA</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>DEVLET</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>1992</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>ŞIRNAK University</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>ŞIRNAK</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>DEVLET</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>TARSUS University</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>MERSİN</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>DEVLET</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>TED University</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>ANKARA</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>VAKIF</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>TEKİRDAĞ NAMIK KEMAL University</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>TEKİRDAĞ</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>DEVLET</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>TOBB EKONOMİ VE TEKNOLOJİ University</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>ANKARA</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>VAKIF</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>2003</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>TOKAT GAZİOSMANPAŞA University</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>TOKAT</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>DEVLET</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>1992</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>TOROS University</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>MERSİN</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>VAKIF</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>TRABZON University</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>TRABZON</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>DEVLET</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>TRAKYA University</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>EDİRNE</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>DEVLET</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>1982</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>TÜRK HAVA KURUMU University</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>ANKARA</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>VAKIF</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>TÜRK-ALMAN University</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>İSTANBUL</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>DEVLET</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>TÜRKİYE ULUSLARARASI İSLAM, BİLİM VE TEKNOLOJİ University</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>İSTANBUL</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>DEVLET</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>TÜRK-JAPON BİLİM VE TEKNOLOJİ University</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>İSTANBUL</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>DEVLET</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>UFUK University</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>ANKARA</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>VAKIF</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>1999</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>UŞAK University</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>UŞAK</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>DEVLET</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>ÜSKÜDAR University</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>İSTANBUL</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>VAKIF</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>VAN YÜZÜNCÜ YIL University</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>VAN</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>DEVLET</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>1982</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>YALOVA University</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>YALOVA</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>DEVLET</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>YAŞAR University</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>İZMİR</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>VAKIF</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>2001</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>YEDİTEPE University</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>İSTANBUL</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>VAKIF</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>1996</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>YILDIZ TEKNİK University</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>İSTANBUL</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>DEVLET</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>1982</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>YOZGAT BOZOK University</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>YOZGAT</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>DEVLET</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>YÜKSEK İHTİSAS University</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>ANKARA</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>VAKIF</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>ZONGULDAK BÜLENT ECEVİT University</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>ZONGULDAK</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>DEVLET</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>1992</t>
         </is>
       </c>
     </row>
